--- a/PNH Monitoring Model Feature Dictionary.xlsx
+++ b/PNH Monitoring Model Feature Dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/Clients/pnh_suboptimal_tx/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D463DB-8E3D-0C4B-B6FC-CFB6A3BE7562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42CFD7C-87BF-E746-A562-D5EB8DD82642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3280" yWindow="-23120" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
-  <si>
-    <t>https://github.com/atroposhealth/pnh-undiagnosed</t>
-  </si>
   <si>
     <t>Column</t>
   </si>
@@ -335,12 +332,15 @@
   <si>
     <t>ICD10 IN ("N17.0", "N17.1", "N17.2", "N17.8", "N17.9")</t>
   </si>
+  <si>
+    <t>https://github.com/atroposhealth/pnh-progression-monitoring</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -380,21 +380,8 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,12 +404,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF38761D"/>
       </patternFill>
     </fill>
   </fills>
@@ -456,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -546,17 +527,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,7 +757,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -796,8 +771,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
+      <c r="A1" s="32" t="s">
+        <v>84</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1"/>
@@ -823,7 +798,7 @@
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -849,19 +824,19 @@
     </row>
     <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -886,16 +861,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -920,10 +895,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="13"/>
@@ -950,10 +925,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="12"/>
@@ -980,16 +955,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>70</v>
+      <c r="E7" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -1014,16 +989,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1048,13 +1023,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="10"/>
@@ -1080,16 +1055,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -24462,6 +24437,9 @@
       <c r="V983" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -24480,7 +24458,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24494,8 +24472,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
+      <c r="A1" s="32" t="s">
+        <v>84</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1"/>
@@ -24521,7 +24499,7 @@
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -24547,19 +24525,19 @@
     </row>
     <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -24584,16 +24562,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>70</v>
+      <c r="E4" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -24618,16 +24596,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -24652,16 +24630,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -24686,16 +24664,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -24720,16 +24698,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -24799,7 +24777,7 @@
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -24826,10 +24804,10 @@
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>79</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>80</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="12"/>
@@ -24853,7 +24831,7 @@
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="10">
         <v>2107301</v>
@@ -24876,7 +24854,7 @@
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="10">
         <v>591781</v>
@@ -24899,7 +24877,7 @@
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="10">
         <v>2671061</v>
@@ -24922,7 +24900,7 @@
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="10">
         <v>2557372</v>
@@ -24945,7 +24923,7 @@
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="10">
         <v>2678952</v>
@@ -48247,8 +48225,11 @@
       <c r="V987" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{B75FC27A-7278-D14F-82DD-21AB840379CC}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{1CAB21DD-AE6C-6046-A731-E5A670C47B58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48278,10 +48259,10 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="8"/>
@@ -48310,7 +48291,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -48319,7 +48300,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="13"/>
     </row>
@@ -48328,7 +48309,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="13"/>
     </row>
@@ -48337,7 +48318,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="24"/>
     </row>
@@ -48346,10 +48327,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.15">
@@ -48357,10 +48338,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -48386,10 +48367,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -48415,10 +48396,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -48444,10 +48425,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -48473,10 +48454,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -48502,10 +48483,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -48531,10 +48512,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -48560,10 +48541,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -48589,10 +48570,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -48618,10 +48599,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -48647,10 +48628,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -48676,10 +48657,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -48705,10 +48686,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -48734,10 +48715,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -48763,10 +48744,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -48792,10 +48773,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -48821,7 +48802,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="28"/>
